--- a/generated_output/temp/us-core-documentreference.xlsx
+++ b/generated_output/temp/us-core-documentreference.xlsx
@@ -189,7 +189,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id {[]} {[]}
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -208,7 +208,7 @@
     <t>DocumentReference.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {[]} {[]}
+    <t xml:space="preserve">Meta
 </t>
   </si>
   <si>
@@ -224,7 +224,7 @@
     <t>DocumentReference.implicitRules</t>
   </si>
   <si>
-    <t xml:space="preserve">uri {[]} {[]}
+    <t xml:space="preserve">uri
 </t>
   </si>
   <si>
@@ -243,7 +243,7 @@
     <t>DocumentReference.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code {[]} {[]}
+    <t xml:space="preserve">code
 </t>
   </si>
   <si>
@@ -275,7 +275,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
+    <t xml:space="preserve">Narrative
 </t>
   </si>
   <si>
@@ -301,7 +301,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource {[]} {[]}
+    <t xml:space="preserve">Resource
 </t>
   </si>
   <si>
@@ -327,7 +327,7 @@
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
@@ -362,7 +362,7 @@
     <t>DocumentReference.masterIdentifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier {[]} {[]}
+    <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
@@ -481,7 +481,7 @@
     <t>DocumentReference.type</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
+    <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
@@ -562,7 +562,7 @@
     <t>DocumentReference.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient]]}
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient)
 </t>
   </si>
   <si>
@@ -600,7 +600,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">instant {[]} {[]}
+    <t xml:space="preserve">instant
 </t>
   </si>
   <si>
@@ -628,7 +628,7 @@
     <t>DocumentReference.author</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner], CanonicalType[http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitionerrole], CanonicalType[http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization], CanonicalType[http://hl7.org/fhir/StructureDefinition/Device], CanonicalType[http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient], CanonicalType[http://hl7.org/fhir/StructureDefinition/RelatedPerson]]}
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner|http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitionerrole|http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization|Device|http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient|RelatedPerson)
 </t>
   </si>
   <si>
@@ -662,7 +662,7 @@
     <t>DocumentReference.authenticator</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Practitioner], CanonicalType[http://hl7.org/fhir/StructureDefinition/PractitionerRole], CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization]]}
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization)
 </t>
   </si>
   <si>
@@ -696,7 +696,7 @@
     <t>DocumentReference.custodian</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization]]}
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization)
 </t>
   </si>
   <si>
@@ -718,7 +718,7 @@
     <t>DocumentReference.relatesTo</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement {[]} {[]}
+    <t xml:space="preserve">BackboneElement
 </t>
   </si>
   <si>
@@ -747,7 +747,7 @@
     <t>DocumentReference.relatesTo.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -819,7 +819,7 @@
     <t>DocumentReference.relatesTo.target</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/DocumentReference]]}
+    <t xml:space="preserve">Reference(DocumentReference)
 </t>
   </si>
   <si>
@@ -926,7 +926,7 @@
     <t>DocumentReference.content.attachment</t>
   </si>
   <si>
-    <t xml:space="preserve">Attachment {[]} {[]}
+    <t xml:space="preserve">Attachment
 </t>
   </si>
   <si>
@@ -982,7 +982,7 @@
     <t>Processors of the data need to be able to know how to interpret the data.</t>
   </si>
   <si>
-    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="text/plain; charset=UTF-8, image/png"/&gt;</t>
+    <t>text/plain; charset=UTF-8, image/png</t>
   </si>
   <si>
     <t>The mime type of an attachment. Any valid mime type is allowed.</t>
@@ -1012,7 +1012,7 @@
     <t>Users need to be able to choose between the languages in a set of attachments.</t>
   </si>
   <si>
-    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="en-AU"/&gt;</t>
+    <t>en-AU</t>
   </si>
   <si>
     <t>Attachment.language</t>
@@ -1024,7 +1024,7 @@
     <t>DocumentReference.content.attachment.data</t>
   </si>
   <si>
-    <t xml:space="preserve">base64Binary {[]} {[]}
+    <t xml:space="preserve">base64Binary
 </t>
   </si>
   <si>
@@ -1052,7 +1052,7 @@
     <t>DocumentReference.content.attachment.url</t>
   </si>
   <si>
-    <t xml:space="preserve">url {[]} {[]}
+    <t xml:space="preserve">url
 </t>
   </si>
   <si>
@@ -1068,7 +1068,7 @@
     <t>The data needs to be transmitted by reference.</t>
   </si>
   <si>
-    <t>&lt;valueUrl xmlns="http://hl7.org/fhir" value="http://www.acme.com/logo-small.png"/&gt;</t>
+    <t>http://www.acme.com/logo-small.png</t>
   </si>
   <si>
     <t>Attachment.url</t>
@@ -1083,7 +1083,7 @@
     <t>DocumentReference.content.attachment.size</t>
   </si>
   <si>
-    <t xml:space="preserve">unsignedInt {[]} {[]}
+    <t xml:space="preserve">unsignedInt
 </t>
   </si>
   <si>
@@ -1138,7 +1138,7 @@
     <t>Applications need a label to display to a human user in place of the actual data if the data cannot be rendered or perceived by the viewer.</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Official Corporate Logo"/&gt;</t>
+    <t>Official Corporate Logo</t>
   </si>
   <si>
     <t>Attachment.title</t>
@@ -1150,7 +1150,7 @@
     <t>DocumentReference.content.attachment.creation</t>
   </si>
   <si>
-    <t xml:space="preserve">dateTime {[]} {[]}
+    <t xml:space="preserve">dateTime
 </t>
   </si>
   <si>
@@ -1169,7 +1169,7 @@
     <t>DocumentReference.content.format</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding {[]} {[]}
+    <t xml:space="preserve">Coding
 </t>
   </si>
   <si>
@@ -1221,7 +1221,7 @@
     <t>DocumentReference.context.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter]]}
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter)
 </t>
   </si>
   <si>
@@ -1276,7 +1276,7 @@
     <t>DocumentReference.context.period</t>
   </si>
   <si>
-    <t xml:space="preserve">Period {[]} {[]}
+    <t xml:space="preserve">Period
 </t>
   </si>
   <si>
@@ -1356,7 +1356,7 @@
     <t>DocumentReference.context.sourcePatientInfo</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Patient]]}
+    <t xml:space="preserve">Reference(Patient)
 </t>
   </si>
   <si>
@@ -1372,7 +1372,7 @@
     <t>DocumentReference.context.related</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Resource]]}
+    <t xml:space="preserve">Reference(Resource)
 </t>
   </si>
   <si>
@@ -1447,67 +1447,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
   </borders>
